--- a/ASP.NET CORE/HRMNS/public/wwwroot/templates/LogTimeTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/public/wwwroot/templates/LogTimeTemplate.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeTracking" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,82 +24,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>User Name</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>Daily Schedule</t>
-  </si>
-  <si>
-    <t>First-In Time</t>
-  </si>
-  <si>
-    <t>Last-Out Time</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>First-In</t>
-  </si>
-  <si>
-    <t>Last-Out</t>
-  </si>
-  <si>
-    <t>HanhChinh</t>
-  </si>
-  <si>
-    <t>Tang Ca</t>
-  </si>
-  <si>
-    <t>BreakTime</t>
-  </si>
-  <si>
-    <t>WorkTime</t>
-  </si>
-  <si>
     <t>Nguyen Thi Van Dung</t>
   </si>
   <si>
-    <t>Wisol/Support/Production Control</t>
-  </si>
-  <si>
-    <t>Hanh Chinh</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>OUT</t>
+    <t>Date(YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Ma NV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First-In Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(HH:MM:SS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last-Out Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(HH:MM:SS)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,8 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,65 +439,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44621</v>
       </c>
@@ -498,46 +479,17 @@
         <v>1503004</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.3215277777777778</v>
       </c>
-      <c r="H2" s="3">
+      <c r="E2" s="3">
         <v>0.72152777777777777</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>